--- a/data/hotels_by_city/Dallas/Dallas_shard_183.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_183.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="829">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>anistigga</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Mike R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r556876368-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Ronnie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r559814571-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>Loved the water pressure in the shower. Housekeepers need to be told to wipe carefully around sink faucet to prevent mildew buildup.  Also need to run shower curtain through wash with bleach to get rid mildew at bottom.  Loved that the shower curtain rod maked a big arc out from tub.  King bed was comfortable although a bit high to climb into (I am 5' 6" and had to climb up several inches to sit on it). Breakfast at 7:30 was uninspiring--two small hard chocolate chip muffins and four slices of bread (including at least one end) were available. I did not take the time to explore, but suspect cereal and waffle batter was available.  Also had plenty of milk and some orange juice available. More</t>
   </si>
   <si>
+    <t>Shelley F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r559462441-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>We were highly disappointed with our stay here. Overall when we checked in the main office and property looked nice and clean. The front desk gentleman who checked us in was friendly. But, later that evening we noticed huge open cracks in the bottom of the bath tub. It was horrible and taking a shower was difficult because the edges of the cracks were sharp and the fiberglass was coming through,, We were appalled that the room was $75 and we had to deal with that. Once I got back to the front desk and told the woman about the problem she seemed very unconcerned and said she'd let the maintenance guy know, No offer of anything to ease our frustration and anger about the situation. Anyways, not a good place to stay!  More</t>
   </si>
   <si>
+    <t>cocarter11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r559424958-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -240,6 +255,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Jeremy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r549725412-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -261,6 +279,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>scotz870</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r539733404-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>677gregoryd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r523831284-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Duane S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r494454594-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
     <t>Have always stayed here when in the DWF area. It is a very quiet and safe area and a well maintained property with clean rooms. They are always improving this property and have a great selection of tv channels along with a much improved high speed internet! The owners are very friendly and always willing to work with guests to accommodate any special requests! Would highly recommend this property!</t>
   </si>
   <si>
+    <t>tammyt620</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r493628383-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>Our room has cob webs all along the to of the wall where the window is at with dead bugs, our cell phone fell behind the night stand where dirt and alot of trash was found and in the bathroom it looked like it hasn't been mopped in some time.  In the left corner of the bathroom floor a pile of cut hair with dirt was sitting on the floor.  The room has damage in several places and where trim on the door was replaced with another style and color of paint.  We informed the manger at the motel all he could say was he would tell the cleaning crew and careless.  I won't EVER STAY THERE AGAINMore</t>
   </si>
   <si>
+    <t>128demetriusy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r492959392-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r491834305-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t>I stopped here in a nasty rainstorm. Staff was pleasant and I got a center room. When I opened the door there was a musty moldy smell. No big deal I chalked it up to the room being closed up.  Turned a/c on and went to get food.  When I returned I was beat and went straight to the very comfortable bed. In the morning I opened the bathroom door and the mold smell was bad.  I jumped in the shower just to get ready to leave.  The bottom 3 inches of the shower curtain had a lot of black mold. As I checked out I mentioned it to the lady behind the counter and she seemed to be genuinely concerned about it. She said if I had come in the night before they would have moved my room immediately.  And she would get housekeeping in there right away.  All in all a good stay and I would go back just because they really seemed upset that I was unhappy. More</t>
   </si>
   <si>
+    <t>275sharlenef</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r487424926-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>05/24/2017</t>
   </si>
   <si>
+    <t>Amber S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r486705414-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -417,6 +459,9 @@
     <t>My boyfriend and I booked our stay here for 5 nights, driving from Michigan. I was so impressed by the room and how comfortable the bed was. By far the best bed I have slept in, in any hotel! We got a king bed, second floor. The bed was also high off the ground which I thought made it look even better. The shower had wonderful pressure and hot water was not an issue! Our room was serviced everyday when we left. The microwave and mini fridge/freezer came in handy as well. During our stay we traveled often to Dallas, and down by Kaufman as well. The location of this hotel was perfect! Especially being right off the highway.Free WiFi and nice cold A/C, we will definitely be booking with Days Inn again on our next trip!More</t>
   </si>
   <si>
+    <t>Anthony M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r486392081-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -429,6 +474,9 @@
     <t>This is a clean nice place to stay. the desk help was informative on locations in town . I will gladly schedule my vacation  here again. The positive thing is it's location which is on the outskirts of Big D(Dallas) and when you leave your on the Hwy .</t>
   </si>
   <si>
+    <t>LoveToGo629</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r485902140-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -444,6 +492,9 @@
     <t xml:space="preserve">We arrived in Terrell around 11 pm and had an easy check in. The room was clean. We were on the interstate side of the building so there was a good bit of road noise but it only bothered me since I wasn't sleeping very well due to a late night Coke. It's very well lit and in a safe area. The breakfast wasn't great but we didn't expect much. If you're not wanting to spend much for a night on the road I'd recommend it. There is a Starbucks next door if you want a better breakfast. </t>
   </si>
   <si>
+    <t>Carol D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r481693379-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -462,6 +513,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Lb8914</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r475306609-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -471,6 +525,9 @@
     <t>04/13/2017</t>
   </si>
   <si>
+    <t>Lorin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r473805702-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -486,6 +543,9 @@
     <t xml:space="preserve">We stayed for two nights, the room was disgusting, the shower/toilet seat looked as though they had never been cleaned. Customer service was HORRID!! Our beds were not refreshed, the sheets were dirty (actual dirt on the sheets, not stains), and the staff was extremely rude. We are in the area often, it is worth the extra $20'ish to stay somewhere else. The Days Inn was the worst of the Wyndham hotels I have stayed at, they are not accommodating at all, we will NOT be back. </t>
   </si>
   <si>
+    <t>Franklin P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r472693130-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -519,6 +579,9 @@
     <t>This is a great property to stay at.They have great rates and clean rooms in a very safe area with a well lit parking lot.also have great tvs with a huge channel selection.The owners are very friendly and most accommodating!</t>
   </si>
   <si>
+    <t>Gloria H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r462013074-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -531,6 +594,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>W7688POrosem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r456508529-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -549,6 +615,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>chrislee2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r455953599-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -564,6 +633,9 @@
     <t>this is a great place to stay.owner is very helpful they just do not have a lot of parking for trucks</t>
   </si>
   <si>
+    <t>joeu249</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r455458119-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -573,6 +645,9 @@
     <t>01/28/2017</t>
   </si>
   <si>
+    <t>M7210FBfrancisc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r441568384-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -600,6 +675,9 @@
     <t>This is a great property to stay at with beautiful clean rooms and reasonable rates! They are updated roooms inside and out and very clean and comfortable with great televisions with a great channel selection! The Owners are very friendly and very helpful! The Best in Terrell!</t>
   </si>
   <si>
+    <t>532blainec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r440651913-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -609,6 +687,9 @@
     <t>11/28/2016</t>
   </si>
   <si>
+    <t>StuartJanine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r439110572-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -627,6 +708,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>cynthiac899</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r435453897-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -642,6 +726,9 @@
     <t>In comparison to the other washotels going for $119 and $149, the rate of $69. I got what I paid for. Sink fixtures were loose. Carpet had so many spots and stains, I left my shoes on at all times. Ick. There was some sort of a/c unit or something beneath my second floor room 212, there was so much vibration it was like the old beds you put a quarter in.</t>
   </si>
   <si>
+    <t>steverN2905SH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r433541122-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -654,6 +741,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>sleepy1_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r427077060-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -669,6 +759,9 @@
     <t>This hotel is older so there were stains on the carpet and walls but the bed was nice and clean. There was a wet spot on the toilet seat which made me a little concerned. I could hear noise from the highway but it wasn't terrible. The hotel had no vacancy so it's popular but the parking lot was safe and my car was fine. I would stay there again if needed, but I like newer hotels that don't have their room doors open to the outside.</t>
   </si>
   <si>
+    <t>Lilysyiayia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r425592369-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -678,6 +771,9 @@
     <t>October 6, 2016</t>
   </si>
   <si>
+    <t>Doug62220</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r415519505-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -696,6 +792,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>katgarza63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r402207863-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -708,6 +807,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>susandT2988IF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r400565071-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -720,6 +822,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>angelamD6323WY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r383958792-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -780,6 +885,9 @@
     <t>This was my 3rd stay in 3 years and each time gets better! The owner is updating rooms and linens which completely adds to the enjoyment, plus he's incredibly friendly. Told him we'd be in after midnight, but it ended up being almost 2am. He called about 1am to confirm we were okay and still coming. He said with all the rain he just wanted to check in on us. The next morning he joked about being fatherly. Breakfast included cereals, pastries, and a new Texas shaped waffle iron. We didn't swim, but the pool looked clear and inviting. Have to admit this place doesn't look all that great from the outside with its motel appearance and Starbucks right in front, but it's updated inside and a great stay... Especially for the price. More</t>
   </si>
   <si>
+    <t>Mickey S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r378838179-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -822,6 +930,9 @@
     <t>Have stayed here many times and never disappointed! The rooms are very clean and comfortable! The wifi is very good along with a great selection of programs on the tvs.The owners are always making upgrades to the rooms and property such as all new carpet and mattresses and the best tvs and air conditioners! Best in Terrell! 5 stars!More</t>
   </si>
   <si>
+    <t>B753BBterryc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r376587712-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -846,6 +957,9 @@
     <t>I booked two rooms for two adults each using Hotwire.  It did not give me an option of single or double beds.  So when we arrived at midnight your clerk says that the rooms are single beds and since I booked using Hotwire he has to charge me for a third room.  Assuming there are no double rooms available and desperate I am forced to pay for a third room.  Guess what, the third room is a double.  The clerk couldn''t switch the rooms rather than fleecing us for more money?  These people are crooks!</t>
   </si>
   <si>
+    <t>torij424</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r373755169-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -861,6 +975,9 @@
     <t xml:space="preserve">Room was nice and clean,but the mini fridge was not plugged in,had mold growing in it and would not turn on. </t>
   </si>
   <si>
+    <t>Wayne W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r373533111-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -876,6 +993,9 @@
     <t>Room just wasn't quite clean.  Had a smell that was unpleasant but I couldn't find the source.  Might have been OK at $50.00 but we paid $79.00 with tax and do not even get me started on the non breakfast.  Took one look and checked out.</t>
   </si>
   <si>
+    <t>MelbKatie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r371592802-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1011,9 @@
     <t xml:space="preserve">We stopped in overnight while traveling through. Staff are nice, rooms are clean, but outdated, bed was comfortable too. Food is close by. Room was quiet too despite being right on the highway. Would stay here again, good hotel considering the price. </t>
   </si>
   <si>
+    <t>858sherylb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r369115483-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -903,6 +1026,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Jana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r368846071-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -918,12 +1044,18 @@
     <t>No frills whatsoever...don't know if they had continental breakfast....breakfast area looked bare. Owners seemed new as they didn't know anything about the local area. Our housekeeper was exceptionally thoughtful!!!! She always brought 2 extra towels each day after the first day I asked!  I am requesting management to give her a raise ASAP!!! Looks like management was doing renovations however...they moved furniture out of several rooms and appeared to be pulling out carpet. ..Big thumbs up for the Waffle House next door!!! Everyone in the area needs to stop there!!! Exceptional hospitality from everyone who works there!!! They need a raise too!!!</t>
   </si>
   <si>
+    <t>bobert64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r368761322-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
     <t>368761322</t>
   </si>
   <si>
+    <t>Kathey G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r367856767-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1089,9 @@
     <t xml:space="preserve">Spent two nights at this hotel, accommodation great for price.  Staff was friendly and courteous. Room clean and housekeeping responsive to needs.  Needed wheelchair accessible room for spouse who is confined to power chair.  Older hotel that has adapted regular room to be handicap accessible.  Spoke directly to manager and gave him my thoughts on things that needed to be adjusted in this handicap room without major expense or renovations.   </t>
   </si>
   <si>
+    <t>Mccown W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r364165109-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1107,9 @@
     <t>Responded April 18, 2016</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r363779237-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1137,9 @@
     <t>We pulled in at 12 midnight to find just what a tired body would want pleasant greetings at the desk. Easy  check-in a very clean room and freshly laundered sheets. Continental breakfast waiting for us later in the morning (8am). There was a motel I had tried earlier literally next door. Inn keeper was curt and the cost was $30.00 more. Happy I took my business elsewhere. Bottom line is if you find yourself in the Terrell area needing lodging this a great place to spend the night.More</t>
   </si>
   <si>
+    <t>K9056HClindal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r362134091-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1149,9 @@
     <t>04/06/2016</t>
   </si>
   <si>
+    <t>Tasha R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r362028724-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1167,9 @@
     <t>I just want to start off by saying I'm a employee at Days Inn in Louisiana and came to Texas on business. When I arrived the lady was rude I was trying to ask questions about things to do around the area she just shook her head and said nothing. So she gives me a room by the loud interstate on the second floor ok that's fine no problem come in the room n the ac doesn't work I call down n she says the breaker is off ok 20 min goes by n still nothing so I tell my friend to go see about another room n that's when she decided to turn on the ac R YOU SERIOUS !!! They have control over your ac ? The icebox was dirty the lamp do not not work no ashtrays in room and we had one hand towel, the bathroom it looks like the housekeeper just sweeps trash in the corner. So I ask for a 12 check out n was told no and my friend went to get breakfast and was told he can only get one cheese egg thing he was getting some for me and my child. Worse place ever. Don't recommend staying .More</t>
   </si>
   <si>
+    <t>Eric V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r356203169-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1185,9 @@
     <t>Nothing special, carpet had a big stain at entry to room.  No hair dryer in the bracket, sheet had stains, though appeared to be clean, bed was a king, and on the high and firm side, but sleep quality was fine.  Continental breakfast included cold cereals, (2), and make your own waffles, plus some fruit and juice along with muffins and bread, oatmeal, etc.Check in was smooth and easy.  Competent staff.</t>
   </si>
   <si>
+    <t>Eli2abethAK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r355297504-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1203,9 @@
     <t>A simple, clean room that was very comfortable. Even with a mostly-full facility, the room was quiet. It easyily allowed a good night of sleep.</t>
   </si>
   <si>
+    <t>756jerryp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r354913369-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1215,9 @@
     <t>03/12/2016</t>
   </si>
   <si>
+    <t>lesliep597</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r351162900-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1236,9 @@
     <t>Responded February 29, 2016</t>
   </si>
   <si>
+    <t>rosannes145</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r348476298-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1254,9 @@
     <t>Checking in they could not retrieve my Wyndham rewards number so no points for this stay.  The registration process is hokey.  Room was clean but the heating /ac smelled so much like mildew and mold that could not be used.  The worst smell ever!  It was late so I did not ask for another room, too tired just did not use the heat.</t>
   </si>
   <si>
+    <t>Bill and Martha M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r346291907-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1284,9 @@
     <t>In Terrell for funeral for a family member.  The room was clean and bed comfortable with excellent check-in service----everything we expected at a good rate. If in Terrell again we will stay there.  Also their continental breakfast was excellent.More</t>
   </si>
   <si>
+    <t>LindaKrum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r341961767-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1311,9 @@
     <t>Blown away. Seriously. I have travelled the globe and stayed in a LOT of hotels....not so many "budget/economy" hotels so this made me sit up and take notice! So much to tell you about the experience. How about Mike, the friendliest guy in East Texas, who I met while getting breakfast in the morning. Oh wrinkle your noses but seriously, the lady running the place starts EVERYONE off on a great day....with a little "can I help you get some coffee?" to "oh,  there are SO many great places in this town, let me share some with you..." truly. AND the housekeepers are amazing - desk staff is great....this is one of the NICEST, CLEANEST hotels I have stayed in....and that is saying a LOT! Keep it up Management, you have done yourselves proud!More</t>
   </si>
   <si>
+    <t>Jack C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r340227182-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1332,9 @@
     <t>Always a good experience. Always clean, quiet and efficient. The courtesy and helpful attitude of the staff is memorable. The room was spacious and we enjoyed the breakfast before we got back on the road. Next time I come to the Terrell area I will stay at Days Inn again and I recommend that you do the same if you want an incredible experience that you will not forget.More</t>
   </si>
   <si>
+    <t>Jen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r340224154-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1350,9 @@
     <t>Very nice hotel. Clean and comfortable. I would definitely stay here again as well as recommend it to anyone looking for a nice hotel at a good price. Fantastic stay!This hotel has a friendly out-going staff who took the time to converse; super breakfast with lots of food to choose from. I would definitely stay at this hotel again. More</t>
   </si>
   <si>
+    <t>Mike F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r339640595-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1362,9 @@
     <t>01/13/2016</t>
   </si>
   <si>
+    <t>deek2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r336512020-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1383,9 @@
     <t>I was disappointed in this room. First thing I did when I got in room was use the restroom. This was disgusting!!!! There was urine on toilet seat and a hair.  Had to clean it myself.  Then of course it made me think the whole room wasn't cleaned.  Just a complete disappointment.  More</t>
   </si>
   <si>
+    <t>Z9700AOjohnh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r333897937-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1431,9 @@
     <t>I stay at this property often and the owners are always friendly and remember me by name.The rooms are always clean and the tvs,a/c, and Internet are always top notch! They have several good restaurants in the area and just opened a Bucees only 2 miles away!More</t>
   </si>
   <si>
+    <t>Scott P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r327905533-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1266,6 +1449,9 @@
     <t>Great visit excellent hotel they just put brand new beds in the rooms very clean the owners were very friendly very helpful very well that's safe no road noise excellent Hotel will be staying there every other weekend for business</t>
   </si>
   <si>
+    <t>rogerhI6700AI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r322225360-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +1470,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>202lauren2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r318714631-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1482,9 @@
     <t>10/14/2015</t>
   </si>
   <si>
+    <t>Cathy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r316814625-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1494,9 @@
     <t>10/07/2015</t>
   </si>
   <si>
+    <t>I5375LPmichaels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r315095264-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1509,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>carolynmU8759HT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r307641235-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1521,9 @@
     <t>09/06/2015</t>
   </si>
   <si>
+    <t>Rheta T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r307258701-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +1536,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Marcia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r294928922-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1557,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>radar999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r290462971-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1584,9 @@
     <t>My local power company scheduled a power outage so I decided to get a motel to prevent suffering from the heat. After calling around to several local motels to learn about their rates (I'm on a fixed income so rates are very important to me), I decided to check out Days Inn. Four things are VERY VERY IMPORTANT to me when choosing a place to stay.... Reasonable rates, cleanliness, good working AC/Heat, &amp; location.Days Inn in Terrell was $30!! less than the other 7 motels ($49.99 + tx) and that was a huge benefit. When the owner opened the door for me to see my potential room very cold air hit me in the face....another welcomed surprise. I went inside, (I'm a germaphobe &amp; I don't like the smell of cigarettes), so I took in a deep breath through my nose &amp; the room smelled BRAND NEW!! I looked around and it was so obvious that the owners take great pride in providing a more-than-nice place for their guests.I had a spacious room on the bottom floor,  handicap parking right outside my door, with a king-sized bed, large bathroom (extremely spotless &amp; well stocked), clean carpet, flat screen tv, microwave, fridge, two dressers, couch, AND FREE WIFI!!!! And on top of all of that, the staff was so nice &amp; accommodating.I can't thank them enough!!More</t>
   </si>
   <si>
+    <t>47russelh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r286948509-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1605,9 @@
     <t>The room was clean, and in relatively good shape. I did not notice the noise from the interstate as other reviews stated.More</t>
   </si>
   <si>
+    <t>Forest C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r286545252-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1413,12 +1626,18 @@
     <t>First room smelled like a wet dog and most of the curtain hangers were missing. Second room was better but not great. Breakfast was poor. More</t>
   </si>
   <si>
+    <t>suzan217</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r286329163-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
     <t>286329163</t>
   </si>
   <si>
+    <t>berteenah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r283460172-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +1650,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>jerolene1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r283013304-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1677,9 @@
     <t>Great Room...very clean and affordable in a nice quiet location with plenty of local dining available. Staff is very friendly and very helpful. I would highly recommend staying here!! Also great tvs with multiple channels to chose from.</t>
   </si>
   <si>
+    <t>Dsemrick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r280243807-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1716,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>swtravels86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r267917987-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1737,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Samuel T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r266897434-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1524,6 +1755,9 @@
     <t xml:space="preserve">Weekend get away!  Needed a ground floor level room and they readily accommodated the request.  Great location  </t>
   </si>
   <si>
+    <t>Terri K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r264196236-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1566,6 +1800,9 @@
     <t>I stay here when im in town for business. The rooms are very nice with an excellent value. Excellent selection of tv cannels and free wifi and free breakfast! This is a very safe area with a great staff! More</t>
   </si>
   <si>
+    <t>jtnewsom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r253664681-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1581,6 +1818,9 @@
     <t>The rates are so low we didn't expect much.  What a surprise!  We had a very nice room with modern TV, microwave, refrigerator, couch, and more.  I got another surprise when I got up.  A most excellent continental breakfast was awaiting.  Thanks, Day's Inn, for being there for us and our tight budget.</t>
   </si>
   <si>
+    <t>johnwV9021UY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r247944349-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1599,6 +1839,9 @@
     <t>No tissues, no decaf coffee when asked, no ice, maker froze waiting for it to thaw? Broken phone, clock radio not working, no decaf at breakfast,  no hospitality at breakfast.  It was like they didn't care. No effort to fix anything. Worst motel stayed at during our trip home. Never again.More</t>
   </si>
   <si>
+    <t>kms0904</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r242338163-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1617,6 +1860,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>450arthura</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r241490908-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1626,6 +1872,9 @@
     <t>11/25/2014</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r238065517-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1644,6 +1893,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Walter O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r237905913-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1653,6 +1905,9 @@
     <t>11/03/2014</t>
   </si>
   <si>
+    <t>Al M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r226870963-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1671,6 +1926,9 @@
     <t>Responded September 5, 2014</t>
   </si>
   <si>
+    <t>Ronda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r222599656-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1689,6 +1947,9 @@
     <t>Responded August 28, 2014</t>
   </si>
   <si>
+    <t>Steven T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r211902306-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1962,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Dwain J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r206402468-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1992,9 @@
     <t>I was to have a handicapped room as I am confined to a motor cart as I cannot walk. the room had a bathtub , bathroom sop small I could not get in on my cart. The smoke alarm was no not there, the corners of the room was filthy. I took pictures of some of these. Breakfast did not have bacon, the butter for waffles was a large community tub, waffles were tough.More</t>
   </si>
   <si>
+    <t>Paula C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r204511104-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1737,6 +2004,9 @@
     <t>05/07/2014</t>
   </si>
   <si>
+    <t>Mary L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r196067894-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1749,6 +2019,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Jaqqueline K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r189130015-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1761,6 +2034,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Dzjennifer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r183216169-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1776,6 +2052,9 @@
     <t>Dirty!!! Pubic hair on bathroom floor!  Hair on pillows.  Dirt, tobacco, not sure what in drawer and on floors!  Desperate for a room or we would've left!  Not a good hotel choice for a fun Canton trip. Not safe feeling for women. What more can I say!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
   </si>
   <si>
+    <t>chippewaohio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r182692674-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1803,6 +2082,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Jerry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r178693307-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1815,6 +2097,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Rakesh P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r178619921-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1830,6 +2115,9 @@
     <t>For the amount I paid, I thought it would be your typical low rated motel. Man, I was surprised.  Staff is very friendly.  Room was nice and clean.  Ample space in room.  Breakfast in morning was good.  Waffles and such......... TV was a bit small, but no biggie. Not like I was expecting a big screen LED TV.  Room had a microwave and large fridge with a freezer that actually kept my ice bag frozen.Plan on being in the area at least once a quarter, so this is my choice for stay in Terrell.</t>
   </si>
   <si>
+    <t>Robert M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r176540605-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1839,6 +2127,9 @@
     <t>09/09/2013</t>
   </si>
   <si>
+    <t>GregandRobin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r172124089-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1860,6 +2151,9 @@
     <t>Late night stop returning from a ballgame in Dallas. We arrived around 1am and the owners came to the window very quickly after I rang the doorbell.  You could tell he was resting but he quickly checked us in and gave us a keys to the room.  Upon opening the door, I was surprised how clean and nice the room was. The beds were good, shower was nice and towels and linens were clean. What blew me away was the air unit in our room. Super cold.  I swear you could hang meat in our room. Didnt even check out the breakfast area since IHOP was across the freeway.  With the great shopping across the way, save your $ for the stores and stay here.More</t>
   </si>
   <si>
+    <t>Jon A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r171085757-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1878,6 +2172,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>gondibo4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r165580554-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1896,6 +2193,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Ms S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r164804319-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1911,6 +2211,9 @@
     <t>After a grueling drive through Dallas, this property was a pleasant surprise.  A great value and very clean and up to date for the price.  Everything worked and the continental breakfast was better than most motels in this price range.  Staff especially gracious and helpful.  Would definitely stay here again.</t>
   </si>
   <si>
+    <t>Chris R R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r162429051-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1929,6 +2232,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Stephen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r161429792-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1938,6 +2244,9 @@
     <t>05/21/2013</t>
   </si>
   <si>
+    <t>Cindy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r159958659-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1956,6 +2265,9 @@
     <t>Would NEVER go back here. Room had new carpet and a fresh paint job but it needed so much more. The outside door did not fit and there was enough room on the side and bottom for something as large as a snake to come through (thank goodness it didn't, but it could have). The beds were very uncomfortable and the "fitted" sheet came off both nights. The new carpet had not been vacuumed along the walls/furniture or in the corners. The bathroom counter was the same: the corners were filthy. The towels were small and so thin you could see through them. The room was very noisy; right on the freeway.  We did not even attempt to eat the breakfast as we assumed if the room was this dirty, we didn't trust how clean the food area might be. We would have left but it was Trades Day weekend and rooms were non-refundable. Though the front desk people were nice, the room was horrible. Do not stay here if you don't have to.More</t>
   </si>
   <si>
+    <t>Loletta K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r155191701-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1968,6 +2280,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>JASON M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r151087643-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1980,6 +2295,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Troy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r150950256-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1995,6 +2313,9 @@
     <t>The three of us stayed two nights at this Days Inn in Terrell Texas. For two nights after tax it was $142 plus some change which I thought was fair for a Friday and Saturday night. I thought the hotel was very quiet and our room was very clean. I slept soundly both nights and felt safe doing so. If I were to nit pick, the only thing I might mention is the matress was too soft for my liking BUT again everything was clean and housekeeping did a great job. I would definitely stay there again.</t>
   </si>
   <si>
+    <t>Donna J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r148085921-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2013,6 +2334,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>ROY R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r145667921-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2025,6 +2349,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Sam T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r143469188-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2037,6 +2364,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Debra J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r139031061-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2055,6 +2385,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Martha P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r129520700-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2073,6 +2406,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>lara e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r125726272-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2091,6 +2427,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>lynda c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r124804759-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2106,6 +2445,9 @@
     <t>I come into Terrell about once every few months and every time I come from now on this is my hotel. It is truely rare to find a staff who is so in touch with what their client. Everyone here goes the extra step to make sure that your stay is the absolute best and it always is. I do recommend this hotel to anyone whose looking for a nice, quiet, and clean place to stay.</t>
   </si>
   <si>
+    <t>Tlee1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r117351538-Days_Inn_Terrell-Terrell_Texas.html</t>
   </si>
   <si>
@@ -2140,6 +2482,9 @@
   </si>
   <si>
     <t>The hotel owner and one of his staff members (male) were not friendly or welcoming upon arrival. They were both very matter of fact and to the point.  They did not smile or make me feel at home.  I woke up on the morning of November 16 to partake in the continental breakfast and a female staff greeted me with "good morning", which is more than the male staff ever did.   At 7:45 AM, I find no milk in the container and about 5 ounces or orange juice. The male staff was sitting in the room behind the desk watching television and says "the milk is in the fridge".  My first thought is "get off your lazy butt and come put some in the container".   I go to the main lobby restroom shortly thereafter to find a broken down television on the floor being stored and no paper towels in the holder.  Ummm, this is not acceptable.   On the up side, the room was comfortable and clean, and I enjoyed my night stay.  The only things that needs work is the STAFF and the lobby restroom. I referred to the staff as male and female because I did not get their names.More</t>
+  </si>
+  <si>
+    <t>albinoking</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d106286-r66094798-Days_Inn_Terrell-Terrell_Texas.html</t>
@@ -2662,28 +3007,32 @@
       <c r="A2" t="n">
         <v>29784</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>129891</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s"/>
@@ -2691,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -2715,51 +3064,52 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>29784</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2773,50 +3123,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>29784</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>129892</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
         <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2840,50 +3194,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>29784</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>38763</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
-      </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2907,35 +3265,39 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>29784</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>129893</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
         <v>71</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2943,10 +3305,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2967,51 +3329,52 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>29784</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>129894</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3025,35 +3388,39 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>29784</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>129895</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3061,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -3085,51 +3452,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>29784</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3143,50 +3511,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>29784</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>129896</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3210,35 +3582,39 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>29784</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>17113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3246,10 +3622,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3270,51 +3646,52 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>29784</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3328,50 +3705,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>29784</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>129897</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3395,50 +3776,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>29784</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>129898</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3462,50 +3847,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>29784</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3529,35 +3918,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>29784</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>129899</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -3565,10 +3958,10 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3589,51 +3982,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>29784</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>14666</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>128</v>
       </c>
-      <c r="J17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>117</v>
-      </c>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3653,50 +4047,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>29784</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>23179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3720,50 +4118,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>29784</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>129900</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3777,50 +4179,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>29784</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>11791</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3838,35 +4244,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>29784</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>129901</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3874,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3898,51 +4308,52 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>29784</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>129902</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3956,50 +4367,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>29784</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>9163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4023,50 +4438,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>29784</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="O24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4080,35 +4499,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>29784</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>3385</v>
+      </c>
+      <c r="C25" t="s">
+        <v>187</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -4116,10 +4539,10 @@
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4140,51 +4563,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>29784</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>129903</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4208,50 +4632,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>29784</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>129904</v>
+      </c>
+      <c r="C27" t="s">
+        <v>199</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4275,35 +4703,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>29784</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>129905</v>
+      </c>
+      <c r="C28" t="s">
+        <v>205</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -4311,10 +4743,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4335,36 +4767,37 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>29784</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>129906</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -4372,10 +4805,10 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="O29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4396,51 +4829,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29784</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="O30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4454,35 +4888,39 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29784</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>129907</v>
+      </c>
+      <c r="C31" t="s">
+        <v>219</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="J31" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -4490,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4514,51 +4952,52 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>29784</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>129908</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="J32" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4576,50 +5015,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>29784</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>129909</v>
+      </c>
+      <c r="C33" t="s">
+        <v>230</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4643,35 +5086,39 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>29784</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>129910</v>
+      </c>
+      <c r="C34" t="s">
+        <v>236</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="J34" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -4679,10 +5126,10 @@
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="O34" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4703,51 +5150,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>29784</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>129911</v>
+      </c>
+      <c r="C35" t="s">
+        <v>241</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="O35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4771,35 +5219,39 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>29784</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>129912</v>
+      </c>
+      <c r="C36" t="s">
+        <v>247</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="J36" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4815,51 +5267,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>29784</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>129913</v>
+      </c>
+      <c r="C37" t="s">
+        <v>251</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="J37" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="K37" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4883,35 +5336,39 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>29784</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>129914</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="J38" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4919,10 +5376,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="O38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4943,36 +5400,37 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>29784</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>129915</v>
+      </c>
+      <c r="C39" t="s">
+        <v>263</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="J39" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4980,10 +5438,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="O39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5004,49 +5462,50 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>29784</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>129916</v>
+      </c>
+      <c r="C40" t="s">
+        <v>268</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="J40" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="O40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -5068,13 +5527,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="X40" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Y40" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41">
@@ -5087,37 +5546,37 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="J41" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5133,13 +5592,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="X41" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Y41" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42">
@@ -5152,37 +5611,37 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="J42" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="K42" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5194,56 +5653,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="X42" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Y42" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>29784</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>48668</v>
+      </c>
+      <c r="C43" t="s">
+        <v>289</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="J43" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K43" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="L43" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5255,56 +5718,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="X43" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Y43" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>29784</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="J44" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="K44" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="O44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5320,54 +5787,58 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Y44" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>29784</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>129917</v>
+      </c>
+      <c r="C45" t="s">
+        <v>304</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="J45" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5389,13 +5860,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="X45" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Y45" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46">
@@ -5408,37 +5879,37 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="J46" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="O46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5452,50 +5923,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>29784</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>129918</v>
+      </c>
+      <c r="C47" t="s">
+        <v>313</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="J47" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="K47" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="O47" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5519,50 +5994,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>29784</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>11560</v>
+      </c>
+      <c r="C48" t="s">
+        <v>319</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="O48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5584,50 +6063,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>29784</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>129919</v>
+      </c>
+      <c r="C49" t="s">
+        <v>325</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="J49" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="K49" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="L49" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="O49" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5641,35 +6124,39 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>29784</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>129920</v>
+      </c>
+      <c r="C50" t="s">
+        <v>331</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="J50" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5677,10 +6164,10 @@
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5701,51 +6188,52 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>29784</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>18890</v>
+      </c>
+      <c r="C51" t="s">
+        <v>336</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="J51" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="K51" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="L51" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5769,35 +6257,39 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>29784</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>129921</v>
+      </c>
+      <c r="C52" t="s">
+        <v>342</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="J52" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5805,10 +6297,10 @@
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O52" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5829,51 +6321,52 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>29784</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>129922</v>
+      </c>
+      <c r="C53" t="s">
+        <v>345</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="J53" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="K53" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="L53" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5897,50 +6390,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>29784</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>11791</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="J54" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="K54" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5964,48 +6461,52 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>29784</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>129923</v>
+      </c>
+      <c r="C55" t="s">
+        <v>357</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="J55" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6027,56 +6528,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="X55" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="Y55" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>29784</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C56" t="s">
+        <v>363</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="J56" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="K56" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="O56" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6094,41 +6599,45 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="X56" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="Y56" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>29784</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>129924</v>
+      </c>
+      <c r="C57" t="s">
+        <v>373</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="J57" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -6136,10 +6645,10 @@
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -6160,51 +6669,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>29784</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>98379</v>
+      </c>
+      <c r="C58" t="s">
+        <v>377</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="J58" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="K58" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="L58" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6216,56 +6726,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="X58" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="Y58" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>29784</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>6497</v>
+      </c>
+      <c r="C59" t="s">
+        <v>383</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="J59" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="K59" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="L59" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="O59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6289,50 +6803,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>29784</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>129925</v>
+      </c>
+      <c r="C60" t="s">
+        <v>389</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="J60" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="K60" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="L60" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="O60" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6356,35 +6874,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>29784</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>129926</v>
+      </c>
+      <c r="C61" t="s">
+        <v>395</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="J61" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -6392,10 +6914,10 @@
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="O61" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6416,49 +6938,50 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>29784</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>129927</v>
+      </c>
+      <c r="C62" t="s">
+        <v>399</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="J62" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="O62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6480,56 +7003,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="X62" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="Y62" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>29784</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>129928</v>
+      </c>
+      <c r="C63" t="s">
+        <v>406</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="J63" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="K63" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="O63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6553,50 +7080,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>29784</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>129929</v>
+      </c>
+      <c r="C64" t="s">
+        <v>412</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="J64" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="K64" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="L64" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="O64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6608,56 +7139,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="X64" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="Y64" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>29784</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>129930</v>
+      </c>
+      <c r="C65" t="s">
+        <v>422</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="J65" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="K65" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="L65" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="O65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6669,56 +7204,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="X65" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="Y65" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>29784</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>2812</v>
+      </c>
+      <c r="C66" t="s">
+        <v>431</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="J66" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="K66" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="O66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -6736,56 +7275,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="X66" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="Y66" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>29784</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>52474</v>
+      </c>
+      <c r="C67" t="s">
+        <v>438</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="J67" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="K67" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="O67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6797,54 +7340,58 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="X67" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="Y67" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>29784</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>899</v>
+      </c>
+      <c r="C68" t="s">
+        <v>444</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="J68" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="O68" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6866,56 +7413,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="X68" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="Y68" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>29784</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>129931</v>
+      </c>
+      <c r="C69" t="s">
+        <v>448</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="J69" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="K69" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L69" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="O69" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6937,54 +7488,58 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="X69" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="Y69" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>29784</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>129932</v>
+      </c>
+      <c r="C70" t="s">
+        <v>455</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="J70" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="O70" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -7002,13 +7557,13 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="X70" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="Y70" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71">
@@ -7021,37 +7576,37 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="J71" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="K71" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="O71" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="n">
@@ -7069,56 +7624,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="X71" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="Y71" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>29784</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="J72" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="K72" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="L72" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="O72" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7134,56 +7693,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="X72" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="Y72" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>29784</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>17057</v>
+      </c>
+      <c r="C73" t="s">
+        <v>471</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="J73" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="K73" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="O73" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7197,50 +7760,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>29784</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>129933</v>
+      </c>
+      <c r="C74" t="s">
+        <v>477</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="J74" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="K74" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="O74" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7264,35 +7831,39 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>29784</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>129934</v>
+      </c>
+      <c r="C75" t="s">
+        <v>484</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="J75" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -7300,10 +7871,10 @@
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="O75" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7324,36 +7895,37 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>29784</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>34635</v>
+      </c>
+      <c r="C76" t="s">
+        <v>488</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="J76" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7361,10 +7933,10 @@
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="O76" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P76" t="n">
         <v>1</v>
@@ -7385,36 +7957,37 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>29784</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>129935</v>
+      </c>
+      <c r="C77" t="s">
+        <v>492</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="J77" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7422,10 +7995,10 @@
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="O77" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7446,36 +8019,37 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>29784</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>129936</v>
+      </c>
+      <c r="C78" t="s">
+        <v>497</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="J78" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7483,10 +8057,10 @@
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="O78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7507,36 +8081,37 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>29784</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>129937</v>
+      </c>
+      <c r="C79" t="s">
+        <v>501</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
       <c r="J79" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -7544,10 +8119,10 @@
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="O79" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P79" t="n">
         <v>2</v>
@@ -7568,51 +8143,52 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>29784</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>16936</v>
+      </c>
+      <c r="C80" t="s">
+        <v>506</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="J80" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="K80" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="L80" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="O80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7636,50 +8212,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>29784</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>129938</v>
+      </c>
+      <c r="C81" t="s">
+        <v>513</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="J81" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="K81" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="L81" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="O81" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7691,56 +8271,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="X81" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="Y81" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>29784</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>129939</v>
+      </c>
+      <c r="C82" t="s">
+        <v>522</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="J82" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="K82" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="L82" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="O82" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7762,56 +8346,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="X82" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="Y82" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>29784</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>129940</v>
+      </c>
+      <c r="C83" t="s">
+        <v>529</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="J83" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="K83" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="L83" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="O83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7833,54 +8421,58 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="X83" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="Y83" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>29784</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>68646</v>
+      </c>
+      <c r="C84" t="s">
+        <v>536</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="J84" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="O84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7902,54 +8494,58 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="X84" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="Y84" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>29784</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>129941</v>
+      </c>
+      <c r="C85" t="s">
+        <v>539</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>468</v>
+        <v>541</v>
       </c>
       <c r="J85" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>470</v>
+        <v>543</v>
       </c>
       <c r="O85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7971,54 +8567,58 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="X85" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="Y85" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>29784</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>129942</v>
+      </c>
+      <c r="C86" t="s">
+        <v>544</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="J86" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>470</v>
+        <v>543</v>
       </c>
       <c r="O86" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8040,56 +8640,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="X86" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="Y86" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>29784</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C87" t="s">
+        <v>52</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>475</v>
+        <v>549</v>
       </c>
       <c r="J87" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="K87" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
       <c r="L87" t="s">
-        <v>478</v>
+        <v>552</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>470</v>
+        <v>543</v>
       </c>
       <c r="O87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -8107,50 +8711,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>478</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>29784</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>129943</v>
+      </c>
+      <c r="C88" t="s">
+        <v>553</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="J88" t="s">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="K88" t="s">
-        <v>482</v>
+        <v>557</v>
       </c>
       <c r="L88" t="s">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>470</v>
+        <v>543</v>
       </c>
       <c r="O88" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8170,7 +8778,7 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>484</v>
+        <v>559</v>
       </c>
     </row>
     <row r="89">
@@ -8183,37 +8791,37 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>485</v>
+        <v>560</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>486</v>
+        <v>561</v>
       </c>
       <c r="J89" t="s">
-        <v>487</v>
+        <v>562</v>
       </c>
       <c r="K89" t="s">
-        <v>488</v>
+        <v>563</v>
       </c>
       <c r="L89" t="s">
-        <v>489</v>
+        <v>564</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="O89" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8237,50 +8845,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>489</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>29784</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>129944</v>
+      </c>
+      <c r="C90" t="s">
+        <v>566</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>491</v>
+        <v>567</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="J90" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="K90" t="s">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="L90" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="O90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8300,50 +8912,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>29784</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>778</v>
+      </c>
+      <c r="C91" t="s">
+        <v>573</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>497</v>
+        <v>574</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>498</v>
+        <v>575</v>
       </c>
       <c r="J91" t="s">
-        <v>499</v>
+        <v>576</v>
       </c>
       <c r="K91" t="s">
-        <v>500</v>
+        <v>577</v>
       </c>
       <c r="L91" t="s">
-        <v>501</v>
+        <v>578</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="O91" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8367,50 +8983,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>501</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>29784</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>129945</v>
+      </c>
+      <c r="C92" t="s">
+        <v>579</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="J92" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="K92" t="s">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="L92" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="O92" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8434,50 +9054,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>29784</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="J93" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="K93" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="L93" t="s">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="O93" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="n">
@@ -8493,47 +9117,51 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="X93" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="Y93" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>29784</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>129946</v>
+      </c>
+      <c r="C94" t="s">
+        <v>594</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>517</v>
+        <v>596</v>
       </c>
       <c r="J94" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="K94" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
       <c r="L94" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8562,50 +9190,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>29784</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>129947</v>
+      </c>
+      <c r="C95" t="s">
+        <v>600</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="J95" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="K95" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="L95" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="O95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -8627,56 +9259,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="X95" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="Y95" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>29784</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>129948</v>
+      </c>
+      <c r="C96" t="s">
+        <v>607</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>527</v>
+        <v>608</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>528</v>
+        <v>609</v>
       </c>
       <c r="J96" t="s">
-        <v>529</v>
+        <v>610</v>
       </c>
       <c r="K96" t="s">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="L96" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="O96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -8700,35 +9336,39 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>29784</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>129949</v>
+      </c>
+      <c r="C97" t="s">
+        <v>614</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>533</v>
+        <v>615</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>534</v>
+        <v>616</v>
       </c>
       <c r="J97" t="s">
-        <v>535</v>
+        <v>617</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s"/>
@@ -8736,10 +9376,10 @@
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="O97" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -8760,51 +9400,52 @@
       <c r="V97" t="n">
         <v>0</v>
       </c>
-      <c r="W97" t="s"/>
-      <c r="X97" t="s"/>
-      <c r="Y97" t="s"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>29784</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>618</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>536</v>
+        <v>619</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>537</v>
+        <v>620</v>
       </c>
       <c r="J98" t="s">
-        <v>538</v>
+        <v>621</v>
       </c>
       <c r="K98" t="s">
-        <v>539</v>
+        <v>622</v>
       </c>
       <c r="L98" t="s">
-        <v>540</v>
+        <v>623</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>541</v>
+        <v>624</v>
       </c>
       <c r="O98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8828,35 +9469,39 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>540</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>29784</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C99" t="s">
+        <v>625</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="J99" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="K99" t="s"/>
       <c r="L99" t="s"/>
@@ -8864,10 +9509,10 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>541</v>
+        <v>624</v>
       </c>
       <c r="O99" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -8888,49 +9533,50 @@
       <c r="V99" t="n">
         <v>0</v>
       </c>
-      <c r="W99" t="s"/>
-      <c r="X99" t="s"/>
-      <c r="Y99" t="s"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>29784</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>54091</v>
+      </c>
+      <c r="C100" t="s">
+        <v>629</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>546</v>
+        <v>631</v>
       </c>
       <c r="J100" t="s">
-        <v>547</v>
+        <v>632</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>548</v>
+        <v>633</v>
       </c>
       <c r="O100" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -8952,54 +9598,58 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>549</v>
+        <v>634</v>
       </c>
       <c r="X100" t="s">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="Y100" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>29784</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>51013</v>
+      </c>
+      <c r="C101" t="s">
+        <v>636</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>551</v>
+        <v>637</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="J101" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>554</v>
+        <v>640</v>
       </c>
       <c r="O101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9021,41 +9671,45 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>555</v>
+        <v>641</v>
       </c>
       <c r="X101" t="s">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="Y101" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>29784</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>6464</v>
+      </c>
+      <c r="C102" t="s">
+        <v>643</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>557</v>
+        <v>644</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>558</v>
+        <v>645</v>
       </c>
       <c r="J102" t="s">
-        <v>559</v>
+        <v>646</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s"/>
@@ -9063,10 +9717,10 @@
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="O102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P102" t="n">
         <v>2</v>
@@ -9087,51 +9741,52 @@
       <c r="V102" t="n">
         <v>0</v>
       </c>
-      <c r="W102" t="s"/>
-      <c r="X102" t="s"/>
-      <c r="Y102" t="s"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>29784</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>129950</v>
+      </c>
+      <c r="C103" t="s">
+        <v>648</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>561</v>
+        <v>649</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>562</v>
+        <v>650</v>
       </c>
       <c r="J103" t="s">
-        <v>563</v>
+        <v>651</v>
       </c>
       <c r="K103" t="s">
-        <v>564</v>
+        <v>652</v>
       </c>
       <c r="L103" t="s">
-        <v>565</v>
+        <v>653</v>
       </c>
       <c r="M103" t="n">
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>566</v>
+        <v>654</v>
       </c>
       <c r="O103" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P103" t="n">
         <v>2</v>
@@ -9153,41 +9808,45 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>567</v>
+        <v>655</v>
       </c>
       <c r="X103" t="s">
-        <v>568</v>
+        <v>656</v>
       </c>
       <c r="Y103" t="s">
-        <v>569</v>
+        <v>657</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>29784</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>3740</v>
+      </c>
+      <c r="C104" t="s">
+        <v>658</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>570</v>
+        <v>659</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>571</v>
+        <v>660</v>
       </c>
       <c r="J104" t="s">
-        <v>572</v>
+        <v>661</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s"/>
@@ -9195,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="N104" t="s">
-        <v>566</v>
+        <v>654</v>
       </c>
       <c r="O104" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9219,49 +9878,50 @@
       <c r="V104" t="n">
         <v>0</v>
       </c>
-      <c r="W104" t="s"/>
-      <c r="X104" t="s"/>
-      <c r="Y104" t="s"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>29784</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>11132</v>
+      </c>
+      <c r="C105" t="s">
+        <v>662</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>574</v>
+        <v>664</v>
       </c>
       <c r="J105" t="s">
-        <v>575</v>
+        <v>665</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="O105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9283,41 +9943,45 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>567</v>
+        <v>655</v>
       </c>
       <c r="X105" t="s">
-        <v>568</v>
+        <v>656</v>
       </c>
       <c r="Y105" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>29784</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>129951</v>
+      </c>
+      <c r="C106" t="s">
+        <v>667</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>577</v>
+        <v>668</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="J106" t="s">
-        <v>579</v>
+        <v>670</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s"/>
@@ -9325,10 +9989,10 @@
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>580</v>
+        <v>671</v>
       </c>
       <c r="O106" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9349,42 +10013,43 @@
       <c r="V106" t="n">
         <v>0</v>
       </c>
-      <c r="W106" t="s"/>
-      <c r="X106" t="s"/>
-      <c r="Y106" t="s"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>29784</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>129952</v>
+      </c>
+      <c r="C107" t="s">
+        <v>672</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>581</v>
+        <v>673</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>582</v>
+        <v>674</v>
       </c>
       <c r="J107" t="s">
-        <v>583</v>
+        <v>675</v>
       </c>
       <c r="K107" t="s">
-        <v>584</v>
+        <v>676</v>
       </c>
       <c r="L107" t="s">
-        <v>585</v>
+        <v>677</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
@@ -9413,41 +10078,45 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>585</v>
+        <v>677</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>29784</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>129953</v>
+      </c>
+      <c r="C108" t="s">
+        <v>678</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>586</v>
+        <v>679</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>587</v>
+        <v>680</v>
       </c>
       <c r="J108" t="s">
-        <v>588</v>
+        <v>681</v>
       </c>
       <c r="K108" t="s">
-        <v>589</v>
+        <v>682</v>
       </c>
       <c r="L108" t="s">
-        <v>590</v>
+        <v>683</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
@@ -9476,35 +10145,39 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>590</v>
+        <v>683</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>29784</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>9163</v>
+      </c>
+      <c r="C109" t="s">
+        <v>175</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>591</v>
+        <v>684</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>592</v>
+        <v>685</v>
       </c>
       <c r="J109" t="s">
-        <v>593</v>
+        <v>686</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" t="s"/>
@@ -9512,10 +10185,10 @@
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>594</v>
+        <v>687</v>
       </c>
       <c r="O109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P109" t="n">
         <v>3</v>
@@ -9536,36 +10209,37 @@
       <c r="V109" t="n">
         <v>0</v>
       </c>
-      <c r="W109" t="s"/>
-      <c r="X109" t="s"/>
-      <c r="Y109" t="s"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>29784</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>26565</v>
+      </c>
+      <c r="C110" t="s">
+        <v>688</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>595</v>
+        <v>689</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>596</v>
+        <v>690</v>
       </c>
       <c r="J110" t="s">
-        <v>597</v>
+        <v>691</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s"/>
@@ -9573,10 +10247,10 @@
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>598</v>
+        <v>692</v>
       </c>
       <c r="O110" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -9597,51 +10271,52 @@
       <c r="V110" t="n">
         <v>0</v>
       </c>
-      <c r="W110" t="s"/>
-      <c r="X110" t="s"/>
-      <c r="Y110" t="s"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>29784</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>129954</v>
+      </c>
+      <c r="C111" t="s">
+        <v>693</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>599</v>
+        <v>694</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>600</v>
+        <v>695</v>
       </c>
       <c r="J111" t="s">
-        <v>601</v>
+        <v>696</v>
       </c>
       <c r="K111" t="s">
-        <v>602</v>
+        <v>697</v>
       </c>
       <c r="L111" t="s">
-        <v>603</v>
+        <v>698</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>598</v>
+        <v>692</v>
       </c>
       <c r="O111" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9665,48 +10340,52 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>603</v>
+        <v>698</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>29784</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>7035</v>
+      </c>
+      <c r="C112" t="s">
+        <v>699</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>604</v>
+        <v>700</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>605</v>
+        <v>701</v>
       </c>
       <c r="J112" t="s">
-        <v>606</v>
+        <v>702</v>
       </c>
       <c r="K112" t="s"/>
       <c r="L112" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>598</v>
+        <v>692</v>
       </c>
       <c r="O112" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -9730,50 +10409,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>29784</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>129955</v>
+      </c>
+      <c r="C113" t="s">
+        <v>703</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>607</v>
+        <v>704</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>608</v>
+        <v>705</v>
       </c>
       <c r="J113" t="s">
-        <v>609</v>
+        <v>706</v>
       </c>
       <c r="K113" t="s">
-        <v>610</v>
+        <v>707</v>
       </c>
       <c r="L113" t="s">
-        <v>611</v>
+        <v>708</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>612</v>
+        <v>709</v>
       </c>
       <c r="O113" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -9797,50 +10480,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>613</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>29784</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C114" t="s">
+        <v>711</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>614</v>
+        <v>712</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>615</v>
+        <v>713</v>
       </c>
       <c r="J114" t="s">
-        <v>616</v>
+        <v>714</v>
       </c>
       <c r="K114" t="s">
-        <v>617</v>
+        <v>715</v>
       </c>
       <c r="L114" t="s">
-        <v>618</v>
+        <v>716</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>619</v>
+        <v>717</v>
       </c>
       <c r="O114" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -9864,50 +10551,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>618</v>
+        <v>716</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>29784</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>129956</v>
+      </c>
+      <c r="C115" t="s">
+        <v>718</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>620</v>
+        <v>719</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>621</v>
+        <v>720</v>
       </c>
       <c r="J115" t="s">
-        <v>622</v>
+        <v>721</v>
       </c>
       <c r="K115" t="s">
-        <v>623</v>
+        <v>722</v>
       </c>
       <c r="L115" t="s">
-        <v>624</v>
+        <v>723</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>625</v>
+        <v>724</v>
       </c>
       <c r="O115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P115" t="n">
         <v>2</v>
@@ -9931,50 +10622,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>624</v>
+        <v>723</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>29784</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>129957</v>
+      </c>
+      <c r="C116" t="s">
+        <v>725</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>626</v>
+        <v>726</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>627</v>
+        <v>727</v>
       </c>
       <c r="J116" t="s">
-        <v>628</v>
+        <v>728</v>
       </c>
       <c r="K116" t="s">
-        <v>629</v>
+        <v>729</v>
       </c>
       <c r="L116" t="s">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>625</v>
+        <v>724</v>
       </c>
       <c r="O116" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -9998,50 +10693,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>630</v>
+        <v>730</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>29784</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>129958</v>
+      </c>
+      <c r="C117" t="s">
+        <v>731</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>631</v>
+        <v>732</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>632</v>
+        <v>733</v>
       </c>
       <c r="J117" t="s">
-        <v>633</v>
+        <v>734</v>
       </c>
       <c r="K117" t="s">
-        <v>634</v>
+        <v>735</v>
       </c>
       <c r="L117" t="s">
-        <v>635</v>
+        <v>736</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>636</v>
+        <v>737</v>
       </c>
       <c r="O117" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P117" t="n">
         <v>5</v>
@@ -10065,35 +10764,39 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>635</v>
+        <v>736</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>29784</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>7344</v>
+      </c>
+      <c r="C118" t="s">
+        <v>738</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>637</v>
+        <v>739</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>638</v>
+        <v>740</v>
       </c>
       <c r="J118" t="s">
-        <v>639</v>
+        <v>741</v>
       </c>
       <c r="K118" t="s"/>
       <c r="L118" t="s"/>
@@ -10101,10 +10804,10 @@
         <v>3</v>
       </c>
       <c r="N118" t="s">
-        <v>636</v>
+        <v>737</v>
       </c>
       <c r="O118" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P118" t="n">
         <v>4</v>
@@ -10125,51 +10828,52 @@
       <c r="V118" t="n">
         <v>0</v>
       </c>
-      <c r="W118" t="s"/>
-      <c r="X118" t="s"/>
-      <c r="Y118" t="s"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>29784</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C119" t="s">
+        <v>742</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>640</v>
+        <v>743</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>641</v>
+        <v>744</v>
       </c>
       <c r="J119" t="s">
-        <v>642</v>
+        <v>745</v>
       </c>
       <c r="K119" t="s">
-        <v>643</v>
+        <v>746</v>
       </c>
       <c r="L119" t="s">
-        <v>644</v>
+        <v>747</v>
       </c>
       <c r="M119" t="n">
         <v>2</v>
       </c>
       <c r="N119" t="s">
-        <v>636</v>
+        <v>737</v>
       </c>
       <c r="O119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -10193,48 +10897,52 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>645</v>
+        <v>748</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>29784</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>129959</v>
+      </c>
+      <c r="C120" t="s">
+        <v>749</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>646</v>
+        <v>750</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I120" t="s">
-        <v>647</v>
+        <v>751</v>
       </c>
       <c r="J120" t="s">
-        <v>648</v>
+        <v>752</v>
       </c>
       <c r="K120" t="s"/>
       <c r="L120" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="M120" t="n">
         <v>2</v>
       </c>
       <c r="N120" t="s">
-        <v>649</v>
+        <v>753</v>
       </c>
       <c r="O120" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P120" t="n">
         <v>2</v>
@@ -10258,35 +10966,39 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>29784</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>129960</v>
+      </c>
+      <c r="C121" t="s">
+        <v>754</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>650</v>
+        <v>755</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I121" t="s">
-        <v>651</v>
+        <v>756</v>
       </c>
       <c r="J121" t="s">
-        <v>652</v>
+        <v>757</v>
       </c>
       <c r="K121" t="s"/>
       <c r="L121" t="s"/>
@@ -10294,10 +11006,10 @@
         <v>4</v>
       </c>
       <c r="N121" t="s">
-        <v>653</v>
+        <v>758</v>
       </c>
       <c r="O121" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P121" t="n">
         <v>3</v>
@@ -10318,51 +11030,52 @@
       <c r="V121" t="n">
         <v>0</v>
       </c>
-      <c r="W121" t="s"/>
-      <c r="X121" t="s"/>
-      <c r="Y121" t="s"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>29784</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>40691</v>
+      </c>
+      <c r="C122" t="s">
+        <v>759</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>654</v>
+        <v>760</v>
       </c>
       <c r="G122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I122" t="s">
-        <v>655</v>
+        <v>761</v>
       </c>
       <c r="J122" t="s">
-        <v>656</v>
+        <v>762</v>
       </c>
       <c r="K122" t="s">
-        <v>657</v>
+        <v>763</v>
       </c>
       <c r="L122" t="s">
-        <v>658</v>
+        <v>764</v>
       </c>
       <c r="M122" t="n">
         <v>4</v>
       </c>
       <c r="N122" t="s">
-        <v>653</v>
+        <v>758</v>
       </c>
       <c r="O122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P122" t="n">
         <v>4</v>
@@ -10386,50 +11099,54 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>658</v>
+        <v>764</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>29784</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>4396</v>
+      </c>
+      <c r="C123" t="s">
+        <v>765</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>659</v>
+        <v>766</v>
       </c>
       <c r="G123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I123" t="s">
-        <v>660</v>
+        <v>767</v>
       </c>
       <c r="J123" t="s">
-        <v>661</v>
+        <v>768</v>
       </c>
       <c r="K123" t="s">
-        <v>662</v>
+        <v>769</v>
       </c>
       <c r="L123" t="s">
-        <v>663</v>
+        <v>770</v>
       </c>
       <c r="M123" t="n">
         <v>3</v>
       </c>
       <c r="N123" t="s">
-        <v>664</v>
+        <v>771</v>
       </c>
       <c r="O123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P123" t="n">
         <v>4</v>
@@ -10453,35 +11170,39 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>663</v>
+        <v>770</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>29784</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>129961</v>
+      </c>
+      <c r="C124" t="s">
+        <v>772</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F124" t="s">
-        <v>665</v>
+        <v>773</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I124" t="s">
-        <v>666</v>
+        <v>774</v>
       </c>
       <c r="J124" t="s">
-        <v>667</v>
+        <v>775</v>
       </c>
       <c r="K124" t="s"/>
       <c r="L124" t="s"/>
@@ -10489,10 +11210,10 @@
         <v>4</v>
       </c>
       <c r="N124" t="s">
-        <v>668</v>
+        <v>776</v>
       </c>
       <c r="O124" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P124" t="n">
         <v>5</v>
@@ -10513,36 +11234,37 @@
       <c r="V124" t="n">
         <v>0</v>
       </c>
-      <c r="W124" t="s"/>
-      <c r="X124" t="s"/>
-      <c r="Y124" t="s"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>29784</v>
       </c>
-      <c r="B125" t="s"/>
-      <c r="C125" t="s"/>
+      <c r="B125" t="n">
+        <v>21874</v>
+      </c>
+      <c r="C125" t="s">
+        <v>777</v>
+      </c>
       <c r="D125" t="n">
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F125" t="s">
-        <v>669</v>
+        <v>778</v>
       </c>
       <c r="G125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I125" t="s">
-        <v>670</v>
+        <v>779</v>
       </c>
       <c r="J125" t="s">
-        <v>671</v>
+        <v>780</v>
       </c>
       <c r="K125" t="s"/>
       <c r="L125" t="s"/>
@@ -10550,10 +11272,10 @@
         <v>3</v>
       </c>
       <c r="N125" t="s">
-        <v>672</v>
+        <v>781</v>
       </c>
       <c r="O125" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P125" t="n">
         <v>4</v>
@@ -10574,51 +11296,52 @@
       <c r="V125" t="n">
         <v>0</v>
       </c>
-      <c r="W125" t="s"/>
-      <c r="X125" t="s"/>
-      <c r="Y125" t="s"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>29784</v>
       </c>
-      <c r="B126" t="s"/>
-      <c r="C126" t="s"/>
+      <c r="B126" t="n">
+        <v>66598</v>
+      </c>
+      <c r="C126" t="s">
+        <v>782</v>
+      </c>
       <c r="D126" t="n">
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F126" t="s">
-        <v>673</v>
+        <v>783</v>
       </c>
       <c r="G126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I126" t="s">
-        <v>674</v>
+        <v>784</v>
       </c>
       <c r="J126" t="s">
-        <v>675</v>
+        <v>785</v>
       </c>
       <c r="K126" t="s">
-        <v>676</v>
+        <v>786</v>
       </c>
       <c r="L126" t="s">
-        <v>677</v>
+        <v>787</v>
       </c>
       <c r="M126" t="n">
         <v>2</v>
       </c>
       <c r="N126" t="s">
-        <v>678</v>
+        <v>788</v>
       </c>
       <c r="O126" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P126" t="n">
         <v>2</v>
@@ -10642,50 +11365,54 @@
       <c r="W126" t="s"/>
       <c r="X126" t="s"/>
       <c r="Y126" t="s">
-        <v>677</v>
+        <v>787</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>29784</v>
       </c>
-      <c r="B127" t="s"/>
-      <c r="C127" t="s"/>
+      <c r="B127" t="n">
+        <v>86009</v>
+      </c>
+      <c r="C127" t="s">
+        <v>789</v>
+      </c>
       <c r="D127" t="n">
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>679</v>
+        <v>790</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I127" t="s">
-        <v>680</v>
+        <v>791</v>
       </c>
       <c r="J127" t="s">
-        <v>681</v>
+        <v>792</v>
       </c>
       <c r="K127" t="s">
-        <v>682</v>
+        <v>793</v>
       </c>
       <c r="L127" t="s">
-        <v>683</v>
+        <v>794</v>
       </c>
       <c r="M127" t="n">
         <v>3</v>
       </c>
       <c r="N127" t="s">
-        <v>684</v>
+        <v>795</v>
       </c>
       <c r="O127" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="P127" t="n">
         <v>3</v>
@@ -10709,50 +11436,54 @@
       <c r="W127" t="s"/>
       <c r="X127" t="s"/>
       <c r="Y127" t="s">
-        <v>683</v>
+        <v>794</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>29784</v>
       </c>
-      <c r="B128" t="s"/>
-      <c r="C128" t="s"/>
+      <c r="B128" t="n">
+        <v>129962</v>
+      </c>
+      <c r="C128" t="s">
+        <v>796</v>
+      </c>
       <c r="D128" t="n">
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>685</v>
+        <v>797</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I128" t="s">
-        <v>686</v>
+        <v>798</v>
       </c>
       <c r="J128" t="s">
-        <v>687</v>
+        <v>799</v>
       </c>
       <c r="K128" t="s">
-        <v>688</v>
+        <v>800</v>
       </c>
       <c r="L128" t="s">
-        <v>689</v>
+        <v>801</v>
       </c>
       <c r="M128" t="n">
         <v>5</v>
       </c>
       <c r="N128" t="s">
-        <v>690</v>
+        <v>802</v>
       </c>
       <c r="O128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P128" t="n">
         <v>5</v>
@@ -10776,50 +11507,54 @@
       <c r="W128" t="s"/>
       <c r="X128" t="s"/>
       <c r="Y128" t="s">
-        <v>689</v>
+        <v>801</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>29784</v>
       </c>
-      <c r="B129" t="s"/>
-      <c r="C129" t="s"/>
+      <c r="B129" t="n">
+        <v>129963</v>
+      </c>
+      <c r="C129" t="s">
+        <v>803</v>
+      </c>
       <c r="D129" t="n">
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F129" t="s">
-        <v>691</v>
+        <v>804</v>
       </c>
       <c r="G129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I129" t="s">
-        <v>692</v>
+        <v>805</v>
       </c>
       <c r="J129" t="s">
-        <v>693</v>
+        <v>806</v>
       </c>
       <c r="K129" t="s">
-        <v>694</v>
+        <v>807</v>
       </c>
       <c r="L129" t="s">
-        <v>695</v>
+        <v>808</v>
       </c>
       <c r="M129" t="n">
         <v>5</v>
       </c>
       <c r="N129" t="s">
-        <v>690</v>
+        <v>802</v>
       </c>
       <c r="O129" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P129" t="n">
         <v>5</v>
@@ -10843,41 +11578,45 @@
       <c r="W129" t="s"/>
       <c r="X129" t="s"/>
       <c r="Y129" t="s">
-        <v>695</v>
+        <v>808</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
         <v>29784</v>
       </c>
-      <c r="B130" t="s"/>
-      <c r="C130" t="s"/>
+      <c r="B130" t="n">
+        <v>129964</v>
+      </c>
+      <c r="C130" t="s">
+        <v>809</v>
+      </c>
       <c r="D130" t="n">
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>696</v>
+        <v>810</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I130" t="s">
-        <v>697</v>
+        <v>811</v>
       </c>
       <c r="J130" t="s">
-        <v>698</v>
+        <v>812</v>
       </c>
       <c r="K130" t="s">
-        <v>699</v>
+        <v>813</v>
       </c>
       <c r="L130" t="s">
-        <v>700</v>
+        <v>814</v>
       </c>
       <c r="M130" t="n">
         <v>1</v>
@@ -10906,7 +11645,7 @@
       <c r="W130" t="s"/>
       <c r="X130" t="s"/>
       <c r="Y130" t="s">
-        <v>700</v>
+        <v>814</v>
       </c>
     </row>
     <row r="131">
@@ -10919,37 +11658,37 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>701</v>
+        <v>815</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I131" t="s">
-        <v>702</v>
+        <v>816</v>
       </c>
       <c r="J131" t="s">
-        <v>703</v>
+        <v>817</v>
       </c>
       <c r="K131" t="s">
-        <v>704</v>
+        <v>818</v>
       </c>
       <c r="L131" t="s">
-        <v>705</v>
+        <v>819</v>
       </c>
       <c r="M131" t="n">
         <v>3</v>
       </c>
       <c r="N131" t="s">
-        <v>706</v>
+        <v>820</v>
       </c>
       <c r="O131" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P131" t="n">
         <v>4</v>
@@ -10973,50 +11712,54 @@
       <c r="W131" t="s"/>
       <c r="X131" t="s"/>
       <c r="Y131" t="s">
-        <v>707</v>
+        <v>821</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
         <v>29784</v>
       </c>
-      <c r="B132" t="s"/>
-      <c r="C132" t="s"/>
+      <c r="B132" t="n">
+        <v>129965</v>
+      </c>
+      <c r="C132" t="s">
+        <v>822</v>
+      </c>
       <c r="D132" t="n">
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
-        <v>708</v>
+        <v>823</v>
       </c>
       <c r="G132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I132" t="s">
-        <v>709</v>
+        <v>824</v>
       </c>
       <c r="J132" t="s">
-        <v>710</v>
+        <v>825</v>
       </c>
       <c r="K132" t="s">
-        <v>711</v>
+        <v>826</v>
       </c>
       <c r="L132" t="s">
-        <v>712</v>
+        <v>827</v>
       </c>
       <c r="M132" t="n">
         <v>5</v>
       </c>
       <c r="N132" t="s">
-        <v>713</v>
+        <v>828</v>
       </c>
       <c r="O132" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P132" t="n">
         <v>5</v>
@@ -11040,7 +11783,7 @@
       <c r="W132" t="s"/>
       <c r="X132" t="s"/>
       <c r="Y132" t="s">
-        <v>712</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
